--- a/medicine/Mort/Chapelle_Saint-Sixte_(Passau)/Chapelle_Saint-Sixte_(Passau).xlsx
+++ b/medicine/Mort/Chapelle_Saint-Sixte_(Passau)/Chapelle_Saint-Sixte_(Passau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chapelle Saint-Sixte (St. Sixtus-Kapelle) est une chapelle, nécropole des comtes d'Ortenburg, et l'une des quatre chapelles du cloître de la cathédrale de Passau en Bavière. Elle se trouve du côté Est entre la cathédrale et la chapelle Saint-André (ou Herrenkapelle).
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une première chapelle est consacrée en 1155[1], puis refaite en style gothique en 1288. C'est donc la plus ancienne de l'ancien cloître[2].
-Les comtes d'Ortenburg, qui sont baillis laïcs de la cathédrale, en font leur nécropole[3]. Comme ils avaient perdu le bailliage au profit des ducs de Bavière au milieu du XIIIe siècle, la famille devait avoir pris possession de la chapelle au préalable. Le 13 août 1288, le comte  Rapoto IV désigne la chapelle Saint-Sixte comme lieu de sépulture de la famille, puisque son père et son grand-père y étaient déjà enterrés. Elle est agrandie et rénovée en 1453 y compris l'espace libre adjacent au bras Nord du transept de la cathédrale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une première chapelle est consacrée en 1155, puis refaite en style gothique en 1288. C'est donc la plus ancienne de l'ancien cloître.
+Les comtes d'Ortenburg, qui sont baillis laïcs de la cathédrale, en font leur nécropole. Comme ils avaient perdu le bailliage au profit des ducs de Bavière au milieu du XIIIe siècle, la famille devait avoir pris possession de la chapelle au préalable. Le 13 août 1288, le comte  Rapoto IV désigne la chapelle Saint-Sixte comme lieu de sépulture de la famille, puisque son père et son grand-père y étaient déjà enterrés. Elle est agrandie et rénovée en 1453 y compris l'espace libre adjacent au bras Nord du transept de la cathédrale.
 Elle demeure la chapelle funéraire des comtes d'Ortenburg jusqu'à la fin du XVIIe siècle. Lorsque cette famille embrasse le protestantisme luthérien de moins en moins de membres de cette famille s'y font enterrer ; le dernier est le comte Christian d'Ortenburg. Au lieu de cela, ils choisissent un nouveau lieu de sépulture protestant construit à Ortenburg en 1573 : l'église luthérienne dite « Marktkirche » (église du Marché) construite en 1573. 
 </t>
         </is>
